--- a/tofi-mdl/doc/structure DB TOFI_Model version 14.xlsx
+++ b/tofi-mdl/doc/structure DB TOFI_Model version 14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\microservice\tofi-monorepo\tofi-mdl\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\tofi-mdl\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="839" firstSheet="13" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="839" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Словари" sheetId="1" r:id="rId1"/>
@@ -16241,8 +16241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21032,7 +21032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -21765,8 +21765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21898,8 +21898,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/tofi-mdl/doc/structure DB TOFI_Model version 14.xlsx
+++ b/tofi-mdl/doc/structure DB TOFI_Model version 14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="839" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="839" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Словари" sheetId="1" r:id="rId1"/>
@@ -21600,7 +21600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D10:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -21765,7 +21765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>

--- a/tofi-mdl/doc/structure DB TOFI_Model version 14.xlsx
+++ b/tofi-mdl/doc/structure DB TOFI_Model version 14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="839" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="839" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Словари" sheetId="1" r:id="rId1"/>
@@ -10196,7 +10196,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -10252,6 +10252,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -17930,8 +17931,8 @@
   </sheetPr>
   <dimension ref="D4:J88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18181,7 +18182,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="51" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21600,7 +21601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D10:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
